--- a/biology/Botanique/Balsamine_des_bois/Balsamine_des_bois.xlsx
+++ b/biology/Botanique/Balsamine_des_bois/Balsamine_des_bois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Impatiens noli-tangere
 La Balsamine des bois (Impatiens noli-tangere), encore appelée Impatiente ne-me-touchez-pas, est une espèce de plante à fleurs de la famille des Balsaminacées. 
@@ -514,11 +526,48 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Feuilles alternes légèrement dentées, fleurs jaunes.
-Caractéristiques
-Organes reproducteurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Balsamine_des_bois</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Balsamine_des_bois</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Type d'inflorescence : racème simple
 Répartition des sexes : hermaphrodite
 Type de pollinisation : entomogame, autogame
@@ -538,33 +587,35 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Balsamine_des_bois</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Balsamine_des_bois</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Calendrier</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La balsamine voit son nom attribué au 6e jour du mois de vendémiaire du calendrier républicain ou révolutionnaire français[1], généralement chaque 27 septembre du calendrier grégorien.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La balsamine voit son nom attribué au 6e jour du mois de vendémiaire du calendrier républicain ou révolutionnaire français, généralement chaque 27 septembre du calendrier grégorien.
 </t>
         </is>
       </c>
